--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H2">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N2">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q2">
-        <v>6.531263662285556</v>
+        <v>0.2727075698462222</v>
       </c>
       <c r="R2">
-        <v>58.78137296057001</v>
+        <v>2.454368128616</v>
       </c>
       <c r="S2">
-        <v>0.001226389048014498</v>
+        <v>6.320168306827183E-05</v>
       </c>
       <c r="T2">
-        <v>0.001226389048014498</v>
+        <v>6.320168306827185E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H3">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q3">
-        <v>9.169624414967332</v>
+        <v>1.818542291458667</v>
       </c>
       <c r="R3">
-        <v>82.526619734706</v>
+        <v>16.366880623128</v>
       </c>
       <c r="S3">
-        <v>0.001721799568720369</v>
+        <v>0.000421458537494322</v>
       </c>
       <c r="T3">
-        <v>0.001721799568720368</v>
+        <v>0.0004214585374943222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H4">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N4">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q4">
-        <v>4.258733504382112</v>
+        <v>1.218463248923111</v>
       </c>
       <c r="R4">
-        <v>38.328601539439</v>
+        <v>10.966169240308</v>
       </c>
       <c r="S4">
-        <v>0.0007996713037854807</v>
+        <v>0.0002823864703579737</v>
       </c>
       <c r="T4">
-        <v>0.0007996713037854804</v>
+        <v>0.0002823864703579738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J5">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N5">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q5">
-        <v>1631.029661775165</v>
+        <v>343.3918459311609</v>
       </c>
       <c r="R5">
-        <v>14679.26695597648</v>
+        <v>3090.526613380448</v>
       </c>
       <c r="S5">
-        <v>0.3062618533896201</v>
+        <v>0.07958320565508391</v>
       </c>
       <c r="T5">
-        <v>0.3062618533896201</v>
+        <v>0.07958320565508392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J6">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P6">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q6">
-        <v>2289.898277191242</v>
+        <v>2289.898277191243</v>
       </c>
       <c r="R6">
         <v>20609.08449472118</v>
       </c>
       <c r="S6">
-        <v>0.4299789923397253</v>
+        <v>0.5306982320117928</v>
       </c>
       <c r="T6">
-        <v>0.4299789923397251</v>
+        <v>0.5306982320117929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J7">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N7">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q7">
-        <v>1063.518643008233</v>
+        <v>1534.282104757581</v>
       </c>
       <c r="R7">
-        <v>9571.667787074095</v>
+        <v>13808.53894281822</v>
       </c>
       <c r="S7">
-        <v>0.1996991215767446</v>
+        <v>0.3555794632942895</v>
       </c>
       <c r="T7">
-        <v>0.1996991215767445</v>
+        <v>0.3555794632942895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H8">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I8">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J8">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N8">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q8">
-        <v>105.1039021686911</v>
+        <v>11.864742269676</v>
       </c>
       <c r="R8">
-        <v>945.9351195182201</v>
+        <v>106.782680427084</v>
       </c>
       <c r="S8">
-        <v>0.0197355796960987</v>
+        <v>0.002749728146665081</v>
       </c>
       <c r="T8">
-        <v>0.01973557969609869</v>
+        <v>0.002749728146665081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H9">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I9">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J9">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.744414</v>
       </c>
       <c r="N9">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O9">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P9">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q9">
-        <v>147.5615374402306</v>
+        <v>79.119679761108</v>
       </c>
       <c r="R9">
-        <v>1328.053836962076</v>
+        <v>712.0771178499721</v>
       </c>
       <c r="S9">
-        <v>0.02770793873624635</v>
+        <v>0.01833648008943959</v>
       </c>
       <c r="T9">
-        <v>0.02770793873624634</v>
+        <v>0.01833648008943959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H10">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I10">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J10">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N10">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q10">
-        <v>68.53337007228822</v>
+        <v>53.011921970838</v>
       </c>
       <c r="R10">
-        <v>616.800330650594</v>
+        <v>477.107297737542</v>
       </c>
       <c r="S10">
-        <v>0.01286865434104475</v>
+        <v>0.01228584411180867</v>
       </c>
       <c r="T10">
-        <v>0.01286865434104474</v>
+        <v>0.01228584411180867</v>
       </c>
     </row>
   </sheetData>
